--- a/第一题/output_var_improve/关税率+波动率预测结果.xlsx
+++ b/第一题/output_var_improve/关税率+波动率预测结果.xlsx
@@ -472,19 +472,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>34.5121</v>
+        <v>42.011</v>
       </c>
       <c r="C2" t="n">
-        <v>0.365159</v>
+        <v>0.10234</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.219192</v>
+        <v>-0.022571</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.934903</v>
+        <v>-0.223157</v>
       </c>
       <c r="F2" t="n">
-        <v>0.496519</v>
+        <v>0.178015</v>
       </c>
     </row>
     <row r="3">
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.8564</v>
+        <v>41.4647</v>
       </c>
       <c r="C3" t="n">
-        <v>0.365922</v>
+        <v>0.107648</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.288753</v>
+        <v>-0.013089</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.00596</v>
+        <v>-0.224079</v>
       </c>
       <c r="F3" t="n">
-        <v>0.428453</v>
+        <v>0.197902</v>
       </c>
     </row>
     <row r="4">
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20.8001</v>
+        <v>41.2074</v>
       </c>
       <c r="C4" t="n">
-        <v>0.422511</v>
+        <v>0.102769</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.217597</v>
+        <v>-0.006224</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.045719</v>
+        <v>-0.207652</v>
       </c>
       <c r="F4" t="n">
-        <v>0.610525</v>
+        <v>0.195204</v>
       </c>
     </row>
     <row r="5">
@@ -538,19 +538,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18.1307</v>
+        <v>41.3323</v>
       </c>
       <c r="C5" t="n">
-        <v>0.435609</v>
+        <v>0.100226</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.137353</v>
+        <v>0.003025</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.991146</v>
+        <v>-0.193418</v>
       </c>
       <c r="F5" t="n">
-        <v>0.71644</v>
+        <v>0.199469</v>
       </c>
     </row>
     <row r="6">
@@ -560,19 +560,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17.2769</v>
+        <v>41.5108</v>
       </c>
       <c r="C6" t="n">
-        <v>0.445916</v>
+        <v>0.09500400000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.048238</v>
+        <v>0.004309</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.922233</v>
+        <v>-0.181899</v>
       </c>
       <c r="F6" t="n">
-        <v>0.825758</v>
+        <v>0.190517</v>
       </c>
     </row>
     <row r="7">
@@ -582,19 +582,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.4223</v>
+        <v>41.5733</v>
       </c>
       <c r="C7" t="n">
-        <v>0.457921</v>
+        <v>0.090625</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.050726</v>
+        <v>0.001505</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.948252</v>
+        <v>-0.176121</v>
       </c>
       <c r="F7" t="n">
-        <v>0.846799</v>
+        <v>0.17913</v>
       </c>
     </row>
     <row r="8">
@@ -604,19 +604,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.9418</v>
+        <v>41.5696</v>
       </c>
       <c r="C8" t="n">
-        <v>0.459978</v>
+        <v>0.086524</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.09447800000000001</v>
+        <v>-8.899999999999999e-05</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.996035</v>
+        <v>-0.169675</v>
       </c>
       <c r="F8" t="n">
-        <v>0.807078</v>
+        <v>0.169497</v>
       </c>
     </row>
     <row r="9">
@@ -626,19 +626,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.0168</v>
+        <v>41.5811</v>
       </c>
       <c r="C9" t="n">
-        <v>0.460745</v>
+        <v>0.082791</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.06390999999999999</v>
+        <v>0.000276</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.96697</v>
+        <v>-0.161994</v>
       </c>
       <c r="F9" t="n">
-        <v>0.83915</v>
+        <v>0.162546</v>
       </c>
     </row>
     <row r="10">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.7129</v>
+        <v>41.6225</v>
       </c>
       <c r="C10" t="n">
-        <v>0.461733</v>
+        <v>0.079501</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04847</v>
+        <v>0.000995</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.856526</v>
+        <v>-0.154828</v>
       </c>
       <c r="F10" t="n">
-        <v>0.953466</v>
+        <v>0.156818</v>
       </c>
     </row>
     <row r="11">
@@ -670,19 +670,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17.479</v>
+        <v>41.6705</v>
       </c>
       <c r="C11" t="n">
-        <v>0.47007</v>
+        <v>0.07657799999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.172276</v>
+        <v>0.001155</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.749061</v>
+        <v>-0.148939</v>
       </c>
       <c r="F11" t="n">
-        <v>1.093613</v>
+        <v>0.151248</v>
       </c>
     </row>
     <row r="12">
@@ -692,19 +692,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21.5602</v>
+        <v>41.7106</v>
       </c>
       <c r="C12" t="n">
-        <v>0.470894</v>
+        <v>0.074007</v>
       </c>
       <c r="D12" t="n">
-        <v>0.20985</v>
+        <v>0.000961</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.713102</v>
+        <v>-0.144093</v>
       </c>
       <c r="F12" t="n">
-        <v>1.132802</v>
+        <v>0.146014</v>
       </c>
     </row>
     <row r="13">
@@ -714,19 +714,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24.8274</v>
+        <v>41.745</v>
       </c>
       <c r="C13" t="n">
-        <v>0.477582</v>
+        <v>0.071752</v>
       </c>
       <c r="D13" t="n">
-        <v>0.141098</v>
+        <v>0.000825</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.7949619999999999</v>
+        <v>-0.139808</v>
       </c>
       <c r="F13" t="n">
-        <v>1.077158</v>
+        <v>0.141458</v>
       </c>
     </row>
     <row r="14">
@@ -736,19 +736,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>25.272</v>
+        <v>41.7801</v>
       </c>
       <c r="C14" t="n">
-        <v>0.515404</v>
+        <v>0.06977999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01775</v>
+        <v>0.00084</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.992442</v>
+        <v>-0.135928</v>
       </c>
       <c r="F14" t="n">
-        <v>1.027942</v>
+        <v>0.137608</v>
       </c>
     </row>
     <row r="15">
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>23.4185</v>
+        <v>41.8175</v>
       </c>
       <c r="C15" t="n">
-        <v>0.516284</v>
+        <v>0.068061</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.076171</v>
+        <v>0.000895</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.088086</v>
+        <v>-0.132505</v>
       </c>
       <c r="F15" t="n">
-        <v>0.935745</v>
+        <v>0.134294</v>
       </c>
     </row>
     <row r="16">
@@ -780,19 +780,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21.1957</v>
+        <v>41.8556</v>
       </c>
       <c r="C16" t="n">
-        <v>0.526944</v>
+        <v>0.066568</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.099728</v>
+        <v>0.000911</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.132537</v>
+        <v>-0.129561</v>
       </c>
       <c r="F16" t="n">
-        <v>0.933082</v>
+        <v>0.131384</v>
       </c>
     </row>
     <row r="17">
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>20.045</v>
+        <v>41.8933</v>
       </c>
       <c r="C17" t="n">
-        <v>0.528182</v>
+        <v>0.065273</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.055819</v>
+        <v>0.000899</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.091056</v>
+        <v>-0.127037</v>
       </c>
       <c r="F17" t="n">
-        <v>0.979418</v>
+        <v>0.128834</v>
       </c>
     </row>
     <row r="18">
@@ -824,19 +824,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.569</v>
+        <v>41.9305</v>
       </c>
       <c r="C18" t="n">
-        <v>0.529413</v>
+        <v>0.064154</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.024036</v>
+        <v>0.000887</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.061685</v>
+        <v>-0.124855</v>
       </c>
       <c r="F18" t="n">
-        <v>1.013614</v>
+        <v>0.126629</v>
       </c>
     </row>
     <row r="19">
@@ -846,19 +846,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>18.5413</v>
+        <v>41.9677</v>
       </c>
       <c r="C19" t="n">
-        <v>0.532277</v>
+        <v>0.063189</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.053946</v>
+        <v>0.000887</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.09721</v>
+        <v>-0.122962</v>
       </c>
       <c r="F19" t="n">
-        <v>0.989318</v>
+        <v>0.124737</v>
       </c>
     </row>
     <row r="20">
@@ -868,19 +868,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16.7345</v>
+        <v>42.0051</v>
       </c>
       <c r="C20" t="n">
-        <v>0.53367</v>
+        <v>0.062358</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.102525</v>
+        <v>0.000892</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.148518</v>
+        <v>-0.121329</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9434669999999999</v>
+        <v>0.123113</v>
       </c>
     </row>
     <row r="21">
@@ -890,19 +890,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>15.2708</v>
+        <v>42.0426</v>
       </c>
       <c r="C21" t="n">
-        <v>0.535067</v>
+        <v>0.061644</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.091531</v>
+        <v>0.000893</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.140261</v>
+        <v>-0.119928</v>
       </c>
       <c r="F21" t="n">
-        <v>0.957199</v>
+        <v>0.121714</v>
       </c>
     </row>
     <row r="22">
@@ -912,19 +912,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.036</v>
+        <v>42.0802</v>
       </c>
       <c r="C22" t="n">
-        <v>0.538426</v>
+        <v>0.061031</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.015496</v>
+        <v>0.000892</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.07081</v>
+        <v>-0.118728</v>
       </c>
       <c r="F22" t="n">
-        <v>1.039818</v>
+        <v>0.120513</v>
       </c>
     </row>
     <row r="23">
@@ -934,19 +934,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16.2647</v>
+        <v>42.1177</v>
       </c>
       <c r="C23" t="n">
-        <v>0.544972</v>
+        <v>0.060506</v>
       </c>
       <c r="D23" t="n">
-        <v>0.07854800000000001</v>
+        <v>0.000891</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.989598</v>
+        <v>-0.1177</v>
       </c>
       <c r="F23" t="n">
-        <v>1.146695</v>
+        <v>0.119483</v>
       </c>
     </row>
     <row r="24">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>18.4676</v>
+        <v>42.1553</v>
       </c>
       <c r="C24" t="n">
-        <v>0.54591</v>
+        <v>0.060057</v>
       </c>
       <c r="D24" t="n">
-        <v>0.127024</v>
+        <v>0.000891</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.942959</v>
+        <v>-0.11682</v>
       </c>
       <c r="F24" t="n">
-        <v>1.197008</v>
+        <v>0.118603</v>
       </c>
     </row>
     <row r="25">
@@ -978,19 +978,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20.4791</v>
+        <v>42.1929</v>
       </c>
       <c r="C25" t="n">
-        <v>0.551437</v>
+        <v>0.059673</v>
       </c>
       <c r="D25" t="n">
-        <v>0.103388</v>
+        <v>0.000892</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.97743</v>
+        <v>-0.116068</v>
       </c>
       <c r="F25" t="n">
-        <v>1.184205</v>
+        <v>0.117851</v>
       </c>
     </row>
   </sheetData>
